--- a/Data/EC/NIT-9006224060.xlsx
+++ b/Data/EC/NIT-9006224060.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E28B7D8E-9203-4A19-886C-2FD0CCE59EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{785BDAE7-BCF0-4061-A36B-55DC1B33209A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CB5D8660-C44D-41F1-8DD8-D24766C57F0A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0DB090BB-1765-44F3-8D7E-4418A65800F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,6 +65,66 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1050962594</t>
+  </si>
+  <si>
+    <t>KARL HELLS CHAMORRO RAMOS</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>20238215</t>
+  </si>
+  <si>
+    <t>ANDERSON YAFETH BLANCO HERNANDEZ</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1143341319</t>
+  </si>
+  <si>
+    <t>KITYAN MARCELA CASTRO PALACIO</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>1128056330</t>
+  </si>
+  <si>
+    <t>KARELIS MARIA MOLINA TORRES</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>6207678</t>
+  </si>
+  <si>
+    <t>VERONICA VALENTINA BOLIVAR REMOLINA</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>1143373218</t>
+  </si>
+  <si>
+    <t>JESSICA ANDREINA MARTINEZ MOROS</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
     <t>1128062875</t>
   </si>
   <si>
@@ -74,36 +134,6 @@
     <t>2210</t>
   </si>
   <si>
-    <t>1050962594</t>
-  </si>
-  <si>
-    <t>KARL HELLS CHAMORRO RAMOS</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1128056330</t>
-  </si>
-  <si>
-    <t>KARELIS MARIA MOLINA TORRES</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>20238215</t>
-  </si>
-  <si>
-    <t>ANDERSON YAFETH BLANCO HERNANDEZ</t>
-  </si>
-  <si>
     <t>1001978144</t>
   </si>
   <si>
@@ -111,60 +141,6 @@
   </si>
   <si>
     <t>2309</t>
-  </si>
-  <si>
-    <t>1143341319</t>
-  </si>
-  <si>
-    <t>KITYAN MARCELA CASTRO PALACIO</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>1128050415</t>
-  </si>
-  <si>
-    <t>JOSE DANIEL RODRIGUEZ BARRETO</t>
-  </si>
-  <si>
-    <t>2507</t>
-  </si>
-  <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>PE</t>
-  </si>
-  <si>
-    <t>6207678</t>
-  </si>
-  <si>
-    <t>VERONICA VALENTINA BOLIVAR REMOLINA</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>1143373218</t>
-  </si>
-  <si>
-    <t>JESSICA ANDREINA MARTINEZ MOROS</t>
-  </si>
-  <si>
-    <t>2208</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -263,7 +239,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -276,9 +254,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -478,23 +454,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -522,10 +498,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -578,7 +554,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{007FFBC4-5A46-C550-0A67-7D93A7912D7B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCE77F56-FD58-7ECB-3870-92EF64BAB126}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -929,8 +905,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A4FB79-6861-4972-B55C-6C4E4BE75A54}">
-  <dimension ref="B2:J38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{647C49CA-E59B-47DE-B5BE-7F83A83AB758}">
+  <dimension ref="B2:J32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -954,7 +930,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -999,7 +975,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1031,12 +1007,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>509662</v>
+        <v>269662</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1047,17 +1023,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C13" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F13" s="5">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1084,13 +1060,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1107,10 +1083,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>4665</v>
+        <v>37800</v>
       </c>
       <c r="G16" s="18">
-        <v>3621705</v>
+        <v>945000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1127,13 +1103,13 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>37800</v>
+        <v>14354</v>
       </c>
       <c r="G17" s="18">
-        <v>945000</v>
+        <v>828116</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1144,13 +1120,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
         <v>37800</v>
@@ -1167,13 +1143,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F19" s="18">
         <v>37800</v>
@@ -1190,16 +1166,16 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="E20" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="16" t="s">
-        <v>19</v>
-      </c>
       <c r="F20" s="18">
-        <v>18666</v>
+        <v>21804</v>
       </c>
       <c r="G20" s="18">
         <v>1000000</v>
@@ -1213,19 +1189,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="E21" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F21" s="18">
-        <v>14354</v>
+        <v>18666</v>
       </c>
       <c r="G21" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1233,22 +1209,22 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F22" s="18">
-        <v>27840</v>
+        <v>1333</v>
       </c>
       <c r="G22" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1259,19 +1235,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>27</v>
-      </c>
       <c r="F23" s="18">
-        <v>21804</v>
+        <v>52000</v>
       </c>
       <c r="G23" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1282,19 +1258,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>30</v>
-      </c>
       <c r="F24" s="18">
-        <v>40000</v>
+        <v>15600</v>
       </c>
       <c r="G24" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1305,213 +1281,75 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>31</v>
       </c>
       <c r="F25" s="18">
-        <v>40000</v>
+        <v>4665</v>
       </c>
       <c r="G25" s="18">
-        <v>1000000</v>
+        <v>3498894</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="16" t="s">
+      <c r="C26" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G26" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B27" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="16" t="s">
+      <c r="D26" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G27" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B28" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" s="16" t="s">
+      <c r="E26" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="F28" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G28" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B29" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F29" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G29" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B30" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F30" s="18">
-        <v>1333</v>
-      </c>
-      <c r="G30" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
+      <c r="F26" s="24">
+        <v>27840</v>
+      </c>
+      <c r="G26" s="24">
+        <v>1160000</v>
+      </c>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="26"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B31" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F31" s="18">
-        <v>15600</v>
-      </c>
-      <c r="G31" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
+      <c r="B31" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="32"/>
+      <c r="H31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B32" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="F32" s="24">
-        <v>52000</v>
-      </c>
-      <c r="G32" s="24">
-        <v>1300000</v>
-      </c>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="26"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B37" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" s="32"/>
-      <c r="H37" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B38" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="32"/>
-      <c r="H38" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
+      <c r="B32" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="32"/>
+      <c r="H32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H31:J31"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
